--- a/Documents/Weekly Plan/Project Plan Week 1+2+3+4+5+6.xlsx
+++ b/Documents/Weekly Plan/Project Plan Week 1+2+3+4+5+6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudangkhoa/Work/EduPKA(Pro)/Documents/Weekly Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901EA175-67A5-264E-A553-DE9E0E50B4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB47D609-B776-D44A-8AD1-6A6F216DE72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1689,6 +1689,20 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1710,20 +1724,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -3729,28 +3729,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="187" t="s">
+      <c r="I1" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="189">
+      <c r="Q1" s="181">
         <v>45639</v>
       </c>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="182"/>
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="182"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -3762,28 +3762,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="187" t="s">
+      <c r="I2" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="191">
+      <c r="Q2" s="183">
         <v>1</v>
       </c>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="190"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="182"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -3879,102 +3879,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="192">
+      <c r="I7" s="184">
         <f>I8</f>
         <v>45635</v>
       </c>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179">
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185">
         <f>P8</f>
         <v>45642</v>
       </c>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="179"/>
-      <c r="T7" s="179"/>
-      <c r="U7" s="179"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179">
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185">
         <f>W8</f>
         <v>45649</v>
       </c>
-      <c r="X7" s="179"/>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="179"/>
-      <c r="AB7" s="179"/>
-      <c r="AC7" s="179"/>
-      <c r="AD7" s="179">
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185">
         <f>AD8</f>
         <v>45656</v>
       </c>
-      <c r="AE7" s="179"/>
-      <c r="AF7" s="179"/>
-      <c r="AG7" s="179"/>
-      <c r="AH7" s="179"/>
-      <c r="AI7" s="179"/>
-      <c r="AJ7" s="179"/>
-      <c r="AK7" s="179">
+      <c r="AE7" s="185"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="185"/>
+      <c r="AJ7" s="185"/>
+      <c r="AK7" s="185">
         <f>AK8</f>
         <v>45663</v>
       </c>
-      <c r="AL7" s="179"/>
-      <c r="AM7" s="179"/>
-      <c r="AN7" s="179"/>
-      <c r="AO7" s="179"/>
-      <c r="AP7" s="179"/>
-      <c r="AQ7" s="179"/>
-      <c r="AR7" s="179">
+      <c r="AL7" s="185"/>
+      <c r="AM7" s="185"/>
+      <c r="AN7" s="185"/>
+      <c r="AO7" s="185"/>
+      <c r="AP7" s="185"/>
+      <c r="AQ7" s="185"/>
+      <c r="AR7" s="185">
         <f>AR8</f>
         <v>45670</v>
       </c>
-      <c r="AS7" s="179"/>
-      <c r="AT7" s="179"/>
-      <c r="AU7" s="179"/>
-      <c r="AV7" s="179"/>
-      <c r="AW7" s="179"/>
-      <c r="AX7" s="179"/>
-      <c r="AY7" s="179">
+      <c r="AS7" s="185"/>
+      <c r="AT7" s="185"/>
+      <c r="AU7" s="185"/>
+      <c r="AV7" s="185"/>
+      <c r="AW7" s="185"/>
+      <c r="AX7" s="185"/>
+      <c r="AY7" s="185">
         <f>AY8</f>
         <v>45677</v>
       </c>
-      <c r="AZ7" s="179"/>
-      <c r="BA7" s="179"/>
-      <c r="BB7" s="179"/>
-      <c r="BC7" s="179"/>
-      <c r="BD7" s="179"/>
-      <c r="BE7" s="179"/>
-      <c r="BF7" s="179">
+      <c r="AZ7" s="185"/>
+      <c r="BA7" s="185"/>
+      <c r="BB7" s="185"/>
+      <c r="BC7" s="185"/>
+      <c r="BD7" s="185"/>
+      <c r="BE7" s="185"/>
+      <c r="BF7" s="185">
         <f>BF8</f>
         <v>45684</v>
       </c>
-      <c r="BG7" s="179"/>
-      <c r="BH7" s="179"/>
-      <c r="BI7" s="179"/>
-      <c r="BJ7" s="179"/>
-      <c r="BK7" s="179"/>
-      <c r="BL7" s="180"/>
+      <c r="BG7" s="185"/>
+      <c r="BH7" s="185"/>
+      <c r="BI7" s="185"/>
+      <c r="BJ7" s="185"/>
+      <c r="BK7" s="185"/>
+      <c r="BL7" s="186"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182" t="s">
+      <c r="A8" s="187"/>
+      <c r="B8" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="184" t="s">
+      <c r="C8" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="186" t="s">
+      <c r="D8" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="186" t="s">
+      <c r="E8" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="192" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -4203,12 +4203,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="181"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -5872,13 +5872,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -5890,6 +5883,13 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D18 D20:D29">
     <cfRule type="dataBar" priority="15">
@@ -6022,28 +6022,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="187" t="s">
+      <c r="I1" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="189">
+      <c r="Q1" s="181">
         <v>45639</v>
       </c>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="182"/>
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="182"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -6055,28 +6055,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="187" t="s">
+      <c r="I2" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="191">
+      <c r="Q2" s="183">
         <v>10</v>
       </c>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="190"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="182"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -6172,102 +6172,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="192">
+      <c r="I7" s="184">
         <f>I8</f>
         <v>45698</v>
       </c>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179">
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185">
         <f>P8</f>
         <v>45705</v>
       </c>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="179"/>
-      <c r="T7" s="179"/>
-      <c r="U7" s="179"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179">
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185">
         <f>W8</f>
         <v>45712</v>
       </c>
-      <c r="X7" s="179"/>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="179"/>
-      <c r="AB7" s="179"/>
-      <c r="AC7" s="179"/>
-      <c r="AD7" s="179">
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185">
         <f>AD8</f>
         <v>45719</v>
       </c>
-      <c r="AE7" s="179"/>
-      <c r="AF7" s="179"/>
-      <c r="AG7" s="179"/>
-      <c r="AH7" s="179"/>
-      <c r="AI7" s="179"/>
-      <c r="AJ7" s="179"/>
-      <c r="AK7" s="179">
+      <c r="AE7" s="185"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="185"/>
+      <c r="AJ7" s="185"/>
+      <c r="AK7" s="185">
         <f>AK8</f>
         <v>45726</v>
       </c>
-      <c r="AL7" s="179"/>
-      <c r="AM7" s="179"/>
-      <c r="AN7" s="179"/>
-      <c r="AO7" s="179"/>
-      <c r="AP7" s="179"/>
-      <c r="AQ7" s="179"/>
-      <c r="AR7" s="179">
+      <c r="AL7" s="185"/>
+      <c r="AM7" s="185"/>
+      <c r="AN7" s="185"/>
+      <c r="AO7" s="185"/>
+      <c r="AP7" s="185"/>
+      <c r="AQ7" s="185"/>
+      <c r="AR7" s="185">
         <f>AR8</f>
         <v>45733</v>
       </c>
-      <c r="AS7" s="179"/>
-      <c r="AT7" s="179"/>
-      <c r="AU7" s="179"/>
-      <c r="AV7" s="179"/>
-      <c r="AW7" s="179"/>
-      <c r="AX7" s="179"/>
-      <c r="AY7" s="179">
+      <c r="AS7" s="185"/>
+      <c r="AT7" s="185"/>
+      <c r="AU7" s="185"/>
+      <c r="AV7" s="185"/>
+      <c r="AW7" s="185"/>
+      <c r="AX7" s="185"/>
+      <c r="AY7" s="185">
         <f>AY8</f>
         <v>45740</v>
       </c>
-      <c r="AZ7" s="179"/>
-      <c r="BA7" s="179"/>
-      <c r="BB7" s="179"/>
-      <c r="BC7" s="179"/>
-      <c r="BD7" s="179"/>
-      <c r="BE7" s="179"/>
-      <c r="BF7" s="179">
+      <c r="AZ7" s="185"/>
+      <c r="BA7" s="185"/>
+      <c r="BB7" s="185"/>
+      <c r="BC7" s="185"/>
+      <c r="BD7" s="185"/>
+      <c r="BE7" s="185"/>
+      <c r="BF7" s="185">
         <f>BF8</f>
         <v>45747</v>
       </c>
-      <c r="BG7" s="179"/>
-      <c r="BH7" s="179"/>
-      <c r="BI7" s="179"/>
-      <c r="BJ7" s="179"/>
-      <c r="BK7" s="179"/>
-      <c r="BL7" s="180"/>
+      <c r="BG7" s="185"/>
+      <c r="BH7" s="185"/>
+      <c r="BI7" s="185"/>
+      <c r="BJ7" s="185"/>
+      <c r="BK7" s="185"/>
+      <c r="BL7" s="186"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182" t="s">
+      <c r="A8" s="187"/>
+      <c r="B8" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="184" t="s">
+      <c r="C8" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="186" t="s">
+      <c r="D8" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="186" t="s">
+      <c r="E8" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="192" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -6496,12 +6496,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="181"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -9116,13 +9116,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -9134,6 +9127,13 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -9398,28 +9398,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="187" t="s">
+      <c r="I1" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="189">
+      <c r="Q1" s="181">
         <v>45642</v>
       </c>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="182"/>
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="182"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -9431,28 +9431,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="187" t="s">
+      <c r="I2" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="191">
+      <c r="Q2" s="183">
         <v>2</v>
       </c>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="190"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="182"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -9548,102 +9548,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="192">
+      <c r="I7" s="184">
         <f>I8</f>
         <v>45642</v>
       </c>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179">
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185">
         <f>P8</f>
         <v>45649</v>
       </c>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="179"/>
-      <c r="T7" s="179"/>
-      <c r="U7" s="179"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179">
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185">
         <f>W8</f>
         <v>45656</v>
       </c>
-      <c r="X7" s="179"/>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="179"/>
-      <c r="AB7" s="179"/>
-      <c r="AC7" s="179"/>
-      <c r="AD7" s="179">
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185">
         <f>AD8</f>
         <v>45663</v>
       </c>
-      <c r="AE7" s="179"/>
-      <c r="AF7" s="179"/>
-      <c r="AG7" s="179"/>
-      <c r="AH7" s="179"/>
-      <c r="AI7" s="179"/>
-      <c r="AJ7" s="179"/>
-      <c r="AK7" s="179">
+      <c r="AE7" s="185"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="185"/>
+      <c r="AJ7" s="185"/>
+      <c r="AK7" s="185">
         <f>AK8</f>
         <v>45670</v>
       </c>
-      <c r="AL7" s="179"/>
-      <c r="AM7" s="179"/>
-      <c r="AN7" s="179"/>
-      <c r="AO7" s="179"/>
-      <c r="AP7" s="179"/>
-      <c r="AQ7" s="179"/>
-      <c r="AR7" s="179">
+      <c r="AL7" s="185"/>
+      <c r="AM7" s="185"/>
+      <c r="AN7" s="185"/>
+      <c r="AO7" s="185"/>
+      <c r="AP7" s="185"/>
+      <c r="AQ7" s="185"/>
+      <c r="AR7" s="185">
         <f>AR8</f>
         <v>45677</v>
       </c>
-      <c r="AS7" s="179"/>
-      <c r="AT7" s="179"/>
-      <c r="AU7" s="179"/>
-      <c r="AV7" s="179"/>
-      <c r="AW7" s="179"/>
-      <c r="AX7" s="179"/>
-      <c r="AY7" s="179">
+      <c r="AS7" s="185"/>
+      <c r="AT7" s="185"/>
+      <c r="AU7" s="185"/>
+      <c r="AV7" s="185"/>
+      <c r="AW7" s="185"/>
+      <c r="AX7" s="185"/>
+      <c r="AY7" s="185">
         <f>AY8</f>
         <v>45684</v>
       </c>
-      <c r="AZ7" s="179"/>
-      <c r="BA7" s="179"/>
-      <c r="BB7" s="179"/>
-      <c r="BC7" s="179"/>
-      <c r="BD7" s="179"/>
-      <c r="BE7" s="179"/>
-      <c r="BF7" s="179">
+      <c r="AZ7" s="185"/>
+      <c r="BA7" s="185"/>
+      <c r="BB7" s="185"/>
+      <c r="BC7" s="185"/>
+      <c r="BD7" s="185"/>
+      <c r="BE7" s="185"/>
+      <c r="BF7" s="185">
         <f>BF8</f>
         <v>45691</v>
       </c>
-      <c r="BG7" s="179"/>
-      <c r="BH7" s="179"/>
-      <c r="BI7" s="179"/>
-      <c r="BJ7" s="179"/>
-      <c r="BK7" s="179"/>
-      <c r="BL7" s="180"/>
+      <c r="BG7" s="185"/>
+      <c r="BH7" s="185"/>
+      <c r="BI7" s="185"/>
+      <c r="BJ7" s="185"/>
+      <c r="BK7" s="185"/>
+      <c r="BL7" s="186"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182" t="s">
+      <c r="A8" s="187"/>
+      <c r="B8" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="184" t="s">
+      <c r="C8" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="186" t="s">
+      <c r="D8" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="186" t="s">
+      <c r="E8" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="192" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -9872,12 +9872,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="181"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
       <c r="I9" s="34" t="str">
         <f>LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -11815,13 +11815,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -11833,6 +11826,13 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D23:D36 D10:D21">
     <cfRule type="dataBar" priority="14">
@@ -11985,28 +11985,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="187" t="s">
+      <c r="I1" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="189">
+      <c r="Q1" s="181">
         <v>45649</v>
       </c>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="182"/>
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="182"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -12018,28 +12018,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="187" t="s">
+      <c r="I2" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="191">
+      <c r="Q2" s="183">
         <v>3</v>
       </c>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="190"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="182"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -12135,102 +12135,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="192">
+      <c r="I7" s="184">
         <f>I8</f>
         <v>45649</v>
       </c>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179">
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185">
         <f>P8</f>
         <v>45656</v>
       </c>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="179"/>
-      <c r="T7" s="179"/>
-      <c r="U7" s="179"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179">
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185">
         <f>W8</f>
         <v>45663</v>
       </c>
-      <c r="X7" s="179"/>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="179"/>
-      <c r="AB7" s="179"/>
-      <c r="AC7" s="179"/>
-      <c r="AD7" s="179">
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185">
         <f>AD8</f>
         <v>45670</v>
       </c>
-      <c r="AE7" s="179"/>
-      <c r="AF7" s="179"/>
-      <c r="AG7" s="179"/>
-      <c r="AH7" s="179"/>
-      <c r="AI7" s="179"/>
-      <c r="AJ7" s="179"/>
-      <c r="AK7" s="179">
+      <c r="AE7" s="185"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="185"/>
+      <c r="AJ7" s="185"/>
+      <c r="AK7" s="185">
         <f>AK8</f>
         <v>45677</v>
       </c>
-      <c r="AL7" s="179"/>
-      <c r="AM7" s="179"/>
-      <c r="AN7" s="179"/>
-      <c r="AO7" s="179"/>
-      <c r="AP7" s="179"/>
-      <c r="AQ7" s="179"/>
-      <c r="AR7" s="179">
+      <c r="AL7" s="185"/>
+      <c r="AM7" s="185"/>
+      <c r="AN7" s="185"/>
+      <c r="AO7" s="185"/>
+      <c r="AP7" s="185"/>
+      <c r="AQ7" s="185"/>
+      <c r="AR7" s="185">
         <f>AR8</f>
         <v>45684</v>
       </c>
-      <c r="AS7" s="179"/>
-      <c r="AT7" s="179"/>
-      <c r="AU7" s="179"/>
-      <c r="AV7" s="179"/>
-      <c r="AW7" s="179"/>
-      <c r="AX7" s="179"/>
-      <c r="AY7" s="179">
+      <c r="AS7" s="185"/>
+      <c r="AT7" s="185"/>
+      <c r="AU7" s="185"/>
+      <c r="AV7" s="185"/>
+      <c r="AW7" s="185"/>
+      <c r="AX7" s="185"/>
+      <c r="AY7" s="185">
         <f>AY8</f>
         <v>45691</v>
       </c>
-      <c r="AZ7" s="179"/>
-      <c r="BA7" s="179"/>
-      <c r="BB7" s="179"/>
-      <c r="BC7" s="179"/>
-      <c r="BD7" s="179"/>
-      <c r="BE7" s="179"/>
-      <c r="BF7" s="179">
+      <c r="AZ7" s="185"/>
+      <c r="BA7" s="185"/>
+      <c r="BB7" s="185"/>
+      <c r="BC7" s="185"/>
+      <c r="BD7" s="185"/>
+      <c r="BE7" s="185"/>
+      <c r="BF7" s="185">
         <f>BF8</f>
         <v>45698</v>
       </c>
-      <c r="BG7" s="179"/>
-      <c r="BH7" s="179"/>
-      <c r="BI7" s="179"/>
-      <c r="BJ7" s="179"/>
-      <c r="BK7" s="179"/>
-      <c r="BL7" s="180"/>
+      <c r="BG7" s="185"/>
+      <c r="BH7" s="185"/>
+      <c r="BI7" s="185"/>
+      <c r="BJ7" s="185"/>
+      <c r="BK7" s="185"/>
+      <c r="BL7" s="186"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182" t="s">
+      <c r="A8" s="187"/>
+      <c r="B8" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="184" t="s">
+      <c r="C8" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="186" t="s">
+      <c r="D8" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="186" t="s">
+      <c r="E8" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="192" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -12459,12 +12459,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="181"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
       <c r="I9" s="34" t="str">
         <f>LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -14433,6 +14433,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -14444,13 +14451,6 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D37 D10:D22">
     <cfRule type="dataBar" priority="14">
@@ -14603,28 +14603,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="187" t="s">
+      <c r="I1" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="189">
+      <c r="Q1" s="181">
         <v>45656</v>
       </c>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="182"/>
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="182"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -14636,28 +14636,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="187" t="s">
+      <c r="I2" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="191">
+      <c r="Q2" s="183">
         <v>4</v>
       </c>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="190"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="182"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -14753,102 +14753,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="192">
+      <c r="I7" s="184">
         <f>I8</f>
         <v>45656</v>
       </c>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179">
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185">
         <f>P8</f>
         <v>45663</v>
       </c>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="179"/>
-      <c r="T7" s="179"/>
-      <c r="U7" s="179"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179">
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185">
         <f>W8</f>
         <v>45670</v>
       </c>
-      <c r="X7" s="179"/>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="179"/>
-      <c r="AB7" s="179"/>
-      <c r="AC7" s="179"/>
-      <c r="AD7" s="179">
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185">
         <f>AD8</f>
         <v>45677</v>
       </c>
-      <c r="AE7" s="179"/>
-      <c r="AF7" s="179"/>
-      <c r="AG7" s="179"/>
-      <c r="AH7" s="179"/>
-      <c r="AI7" s="179"/>
-      <c r="AJ7" s="179"/>
-      <c r="AK7" s="179">
+      <c r="AE7" s="185"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="185"/>
+      <c r="AJ7" s="185"/>
+      <c r="AK7" s="185">
         <f>AK8</f>
         <v>45684</v>
       </c>
-      <c r="AL7" s="179"/>
-      <c r="AM7" s="179"/>
-      <c r="AN7" s="179"/>
-      <c r="AO7" s="179"/>
-      <c r="AP7" s="179"/>
-      <c r="AQ7" s="179"/>
-      <c r="AR7" s="179">
+      <c r="AL7" s="185"/>
+      <c r="AM7" s="185"/>
+      <c r="AN7" s="185"/>
+      <c r="AO7" s="185"/>
+      <c r="AP7" s="185"/>
+      <c r="AQ7" s="185"/>
+      <c r="AR7" s="185">
         <f>AR8</f>
         <v>45691</v>
       </c>
-      <c r="AS7" s="179"/>
-      <c r="AT7" s="179"/>
-      <c r="AU7" s="179"/>
-      <c r="AV7" s="179"/>
-      <c r="AW7" s="179"/>
-      <c r="AX7" s="179"/>
-      <c r="AY7" s="179">
+      <c r="AS7" s="185"/>
+      <c r="AT7" s="185"/>
+      <c r="AU7" s="185"/>
+      <c r="AV7" s="185"/>
+      <c r="AW7" s="185"/>
+      <c r="AX7" s="185"/>
+      <c r="AY7" s="185">
         <f>AY8</f>
         <v>45698</v>
       </c>
-      <c r="AZ7" s="179"/>
-      <c r="BA7" s="179"/>
-      <c r="BB7" s="179"/>
-      <c r="BC7" s="179"/>
-      <c r="BD7" s="179"/>
-      <c r="BE7" s="179"/>
-      <c r="BF7" s="179">
+      <c r="AZ7" s="185"/>
+      <c r="BA7" s="185"/>
+      <c r="BB7" s="185"/>
+      <c r="BC7" s="185"/>
+      <c r="BD7" s="185"/>
+      <c r="BE7" s="185"/>
+      <c r="BF7" s="185">
         <f>BF8</f>
         <v>45705</v>
       </c>
-      <c r="BG7" s="179"/>
-      <c r="BH7" s="179"/>
-      <c r="BI7" s="179"/>
-      <c r="BJ7" s="179"/>
-      <c r="BK7" s="179"/>
-      <c r="BL7" s="180"/>
+      <c r="BG7" s="185"/>
+      <c r="BH7" s="185"/>
+      <c r="BI7" s="185"/>
+      <c r="BJ7" s="185"/>
+      <c r="BK7" s="185"/>
+      <c r="BL7" s="186"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182" t="s">
+      <c r="A8" s="187"/>
+      <c r="B8" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="184" t="s">
+      <c r="C8" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="186" t="s">
+      <c r="D8" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="186" t="s">
+      <c r="E8" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="192" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -15077,12 +15077,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="181"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
       <c r="I9" s="34" t="str">
         <f>LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -16642,13 +16642,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -16660,6 +16653,13 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D19 D21:D32">
     <cfRule type="dataBar" priority="14">
@@ -16811,28 +16811,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="187" t="s">
+      <c r="I1" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="189">
+      <c r="Q1" s="181">
         <v>45663</v>
       </c>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="182"/>
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="182"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -16844,28 +16844,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="187" t="s">
+      <c r="I2" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="191">
+      <c r="Q2" s="183">
         <v>5</v>
       </c>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="190"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="182"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -16961,102 +16961,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="192">
+      <c r="I7" s="184">
         <f>I8</f>
         <v>45663</v>
       </c>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179">
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185">
         <f>P8</f>
         <v>45670</v>
       </c>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="179"/>
-      <c r="T7" s="179"/>
-      <c r="U7" s="179"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179">
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185">
         <f>W8</f>
         <v>45677</v>
       </c>
-      <c r="X7" s="179"/>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="179"/>
-      <c r="AB7" s="179"/>
-      <c r="AC7" s="179"/>
-      <c r="AD7" s="179">
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185">
         <f>AD8</f>
         <v>45684</v>
       </c>
-      <c r="AE7" s="179"/>
-      <c r="AF7" s="179"/>
-      <c r="AG7" s="179"/>
-      <c r="AH7" s="179"/>
-      <c r="AI7" s="179"/>
-      <c r="AJ7" s="179"/>
-      <c r="AK7" s="179">
+      <c r="AE7" s="185"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="185"/>
+      <c r="AJ7" s="185"/>
+      <c r="AK7" s="185">
         <f>AK8</f>
         <v>45691</v>
       </c>
-      <c r="AL7" s="179"/>
-      <c r="AM7" s="179"/>
-      <c r="AN7" s="179"/>
-      <c r="AO7" s="179"/>
-      <c r="AP7" s="179"/>
-      <c r="AQ7" s="179"/>
-      <c r="AR7" s="179">
+      <c r="AL7" s="185"/>
+      <c r="AM7" s="185"/>
+      <c r="AN7" s="185"/>
+      <c r="AO7" s="185"/>
+      <c r="AP7" s="185"/>
+      <c r="AQ7" s="185"/>
+      <c r="AR7" s="185">
         <f>AR8</f>
         <v>45698</v>
       </c>
-      <c r="AS7" s="179"/>
-      <c r="AT7" s="179"/>
-      <c r="AU7" s="179"/>
-      <c r="AV7" s="179"/>
-      <c r="AW7" s="179"/>
-      <c r="AX7" s="179"/>
-      <c r="AY7" s="179">
+      <c r="AS7" s="185"/>
+      <c r="AT7" s="185"/>
+      <c r="AU7" s="185"/>
+      <c r="AV7" s="185"/>
+      <c r="AW7" s="185"/>
+      <c r="AX7" s="185"/>
+      <c r="AY7" s="185">
         <f>AY8</f>
         <v>45705</v>
       </c>
-      <c r="AZ7" s="179"/>
-      <c r="BA7" s="179"/>
-      <c r="BB7" s="179"/>
-      <c r="BC7" s="179"/>
-      <c r="BD7" s="179"/>
-      <c r="BE7" s="179"/>
-      <c r="BF7" s="179">
+      <c r="AZ7" s="185"/>
+      <c r="BA7" s="185"/>
+      <c r="BB7" s="185"/>
+      <c r="BC7" s="185"/>
+      <c r="BD7" s="185"/>
+      <c r="BE7" s="185"/>
+      <c r="BF7" s="185">
         <f>BF8</f>
         <v>45712</v>
       </c>
-      <c r="BG7" s="179"/>
-      <c r="BH7" s="179"/>
-      <c r="BI7" s="179"/>
-      <c r="BJ7" s="179"/>
-      <c r="BK7" s="179"/>
-      <c r="BL7" s="180"/>
+      <c r="BG7" s="185"/>
+      <c r="BH7" s="185"/>
+      <c r="BI7" s="185"/>
+      <c r="BJ7" s="185"/>
+      <c r="BK7" s="185"/>
+      <c r="BL7" s="186"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182" t="s">
+      <c r="A8" s="187"/>
+      <c r="B8" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="184" t="s">
+      <c r="C8" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="186" t="s">
+      <c r="D8" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="186" t="s">
+      <c r="E8" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="192" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -17285,12 +17285,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="181"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
       <c r="I9" s="34" t="str">
         <f>LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -18906,6 +18906,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -18917,13 +18924,6 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D20 D22:D34">
     <cfRule type="dataBar" priority="14">
@@ -19043,8 +19043,8 @@
   </sheetPr>
   <dimension ref="A1:BL37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="84" zoomScaleNormal="64" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AS24" sqref="AS24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="84" zoomScaleNormal="64" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19075,28 +19075,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="187" t="s">
+      <c r="I1" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="189">
+      <c r="Q1" s="181">
         <v>45670</v>
       </c>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="182"/>
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="182"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -19108,28 +19108,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="187" t="s">
+      <c r="I2" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="191">
+      <c r="Q2" s="183">
         <v>6</v>
       </c>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="190"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="182"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -19225,102 +19225,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="192">
+      <c r="I7" s="184">
         <f>I8</f>
         <v>45670</v>
       </c>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179">
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185">
         <f>P8</f>
         <v>45677</v>
       </c>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="179"/>
-      <c r="T7" s="179"/>
-      <c r="U7" s="179"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179">
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185">
         <f>W8</f>
         <v>45684</v>
       </c>
-      <c r="X7" s="179"/>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="179"/>
-      <c r="AB7" s="179"/>
-      <c r="AC7" s="179"/>
-      <c r="AD7" s="179">
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185">
         <f>AD8</f>
         <v>45691</v>
       </c>
-      <c r="AE7" s="179"/>
-      <c r="AF7" s="179"/>
-      <c r="AG7" s="179"/>
-      <c r="AH7" s="179"/>
-      <c r="AI7" s="179"/>
-      <c r="AJ7" s="179"/>
-      <c r="AK7" s="179">
+      <c r="AE7" s="185"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="185"/>
+      <c r="AJ7" s="185"/>
+      <c r="AK7" s="185">
         <f>AK8</f>
         <v>45698</v>
       </c>
-      <c r="AL7" s="179"/>
-      <c r="AM7" s="179"/>
-      <c r="AN7" s="179"/>
-      <c r="AO7" s="179"/>
-      <c r="AP7" s="179"/>
-      <c r="AQ7" s="179"/>
-      <c r="AR7" s="179">
+      <c r="AL7" s="185"/>
+      <c r="AM7" s="185"/>
+      <c r="AN7" s="185"/>
+      <c r="AO7" s="185"/>
+      <c r="AP7" s="185"/>
+      <c r="AQ7" s="185"/>
+      <c r="AR7" s="185">
         <f>AR8</f>
         <v>45705</v>
       </c>
-      <c r="AS7" s="179"/>
-      <c r="AT7" s="179"/>
-      <c r="AU7" s="179"/>
-      <c r="AV7" s="179"/>
-      <c r="AW7" s="179"/>
-      <c r="AX7" s="179"/>
-      <c r="AY7" s="179">
+      <c r="AS7" s="185"/>
+      <c r="AT7" s="185"/>
+      <c r="AU7" s="185"/>
+      <c r="AV7" s="185"/>
+      <c r="AW7" s="185"/>
+      <c r="AX7" s="185"/>
+      <c r="AY7" s="185">
         <f>AY8</f>
         <v>45712</v>
       </c>
-      <c r="AZ7" s="179"/>
-      <c r="BA7" s="179"/>
-      <c r="BB7" s="179"/>
-      <c r="BC7" s="179"/>
-      <c r="BD7" s="179"/>
-      <c r="BE7" s="179"/>
-      <c r="BF7" s="179">
+      <c r="AZ7" s="185"/>
+      <c r="BA7" s="185"/>
+      <c r="BB7" s="185"/>
+      <c r="BC7" s="185"/>
+      <c r="BD7" s="185"/>
+      <c r="BE7" s="185"/>
+      <c r="BF7" s="185">
         <f>BF8</f>
         <v>45719</v>
       </c>
-      <c r="BG7" s="179"/>
-      <c r="BH7" s="179"/>
-      <c r="BI7" s="179"/>
-      <c r="BJ7" s="179"/>
-      <c r="BK7" s="179"/>
-      <c r="BL7" s="180"/>
+      <c r="BG7" s="185"/>
+      <c r="BH7" s="185"/>
+      <c r="BI7" s="185"/>
+      <c r="BJ7" s="185"/>
+      <c r="BK7" s="185"/>
+      <c r="BL7" s="186"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182" t="s">
+      <c r="A8" s="187"/>
+      <c r="B8" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="184" t="s">
+      <c r="C8" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="186" t="s">
+      <c r="D8" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="186" t="s">
+      <c r="E8" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="192" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -19549,12 +19549,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="181"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
       <c r="I9" s="34" t="str">
         <f>LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -21120,13 +21120,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -21138,6 +21131,13 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D20 D22:D34">
     <cfRule type="dataBar" priority="14">
@@ -21284,28 +21284,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="187" t="s">
+      <c r="I1" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="189">
+      <c r="Q1" s="181">
         <v>45639</v>
       </c>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="182"/>
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="182"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -21317,28 +21317,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="187" t="s">
+      <c r="I2" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="191">
+      <c r="Q2" s="183">
         <v>7</v>
       </c>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="190"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="182"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -21434,102 +21434,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="192">
+      <c r="I7" s="184">
         <f>I8</f>
         <v>45677</v>
       </c>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179">
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185">
         <f>P8</f>
         <v>45684</v>
       </c>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="179"/>
-      <c r="T7" s="179"/>
-      <c r="U7" s="179"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179">
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185">
         <f>W8</f>
         <v>45691</v>
       </c>
-      <c r="X7" s="179"/>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="179"/>
-      <c r="AB7" s="179"/>
-      <c r="AC7" s="179"/>
-      <c r="AD7" s="179">
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185">
         <f>AD8</f>
         <v>45698</v>
       </c>
-      <c r="AE7" s="179"/>
-      <c r="AF7" s="179"/>
-      <c r="AG7" s="179"/>
-      <c r="AH7" s="179"/>
-      <c r="AI7" s="179"/>
-      <c r="AJ7" s="179"/>
-      <c r="AK7" s="179">
+      <c r="AE7" s="185"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="185"/>
+      <c r="AJ7" s="185"/>
+      <c r="AK7" s="185">
         <f>AK8</f>
         <v>45705</v>
       </c>
-      <c r="AL7" s="179"/>
-      <c r="AM7" s="179"/>
-      <c r="AN7" s="179"/>
-      <c r="AO7" s="179"/>
-      <c r="AP7" s="179"/>
-      <c r="AQ7" s="179"/>
-      <c r="AR7" s="179">
+      <c r="AL7" s="185"/>
+      <c r="AM7" s="185"/>
+      <c r="AN7" s="185"/>
+      <c r="AO7" s="185"/>
+      <c r="AP7" s="185"/>
+      <c r="AQ7" s="185"/>
+      <c r="AR7" s="185">
         <f>AR8</f>
         <v>45712</v>
       </c>
-      <c r="AS7" s="179"/>
-      <c r="AT7" s="179"/>
-      <c r="AU7" s="179"/>
-      <c r="AV7" s="179"/>
-      <c r="AW7" s="179"/>
-      <c r="AX7" s="179"/>
-      <c r="AY7" s="179">
+      <c r="AS7" s="185"/>
+      <c r="AT7" s="185"/>
+      <c r="AU7" s="185"/>
+      <c r="AV7" s="185"/>
+      <c r="AW7" s="185"/>
+      <c r="AX7" s="185"/>
+      <c r="AY7" s="185">
         <f>AY8</f>
         <v>45719</v>
       </c>
-      <c r="AZ7" s="179"/>
-      <c r="BA7" s="179"/>
-      <c r="BB7" s="179"/>
-      <c r="BC7" s="179"/>
-      <c r="BD7" s="179"/>
-      <c r="BE7" s="179"/>
-      <c r="BF7" s="179">
+      <c r="AZ7" s="185"/>
+      <c r="BA7" s="185"/>
+      <c r="BB7" s="185"/>
+      <c r="BC7" s="185"/>
+      <c r="BD7" s="185"/>
+      <c r="BE7" s="185"/>
+      <c r="BF7" s="185">
         <f>BF8</f>
         <v>45726</v>
       </c>
-      <c r="BG7" s="179"/>
-      <c r="BH7" s="179"/>
-      <c r="BI7" s="179"/>
-      <c r="BJ7" s="179"/>
-      <c r="BK7" s="179"/>
-      <c r="BL7" s="180"/>
+      <c r="BG7" s="185"/>
+      <c r="BH7" s="185"/>
+      <c r="BI7" s="185"/>
+      <c r="BJ7" s="185"/>
+      <c r="BK7" s="185"/>
+      <c r="BL7" s="186"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182" t="s">
+      <c r="A8" s="187"/>
+      <c r="B8" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="184" t="s">
+      <c r="C8" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="186" t="s">
+      <c r="D8" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="186" t="s">
+      <c r="E8" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="192" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -21758,12 +21758,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="181"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -24378,13 +24378,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -24396,6 +24389,13 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -24529,28 +24529,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="187" t="s">
+      <c r="I1" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="189">
+      <c r="Q1" s="181">
         <v>45639</v>
       </c>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="182"/>
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="182"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -24562,28 +24562,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="187" t="s">
+      <c r="I2" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="191">
+      <c r="Q2" s="183">
         <v>8</v>
       </c>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="190"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="182"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -24679,102 +24679,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="192">
+      <c r="I7" s="184">
         <f>I8</f>
         <v>45684</v>
       </c>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179">
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185">
         <f>P8</f>
         <v>45691</v>
       </c>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="179"/>
-      <c r="T7" s="179"/>
-      <c r="U7" s="179"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179">
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185">
         <f>W8</f>
         <v>45698</v>
       </c>
-      <c r="X7" s="179"/>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="179"/>
-      <c r="AB7" s="179"/>
-      <c r="AC7" s="179"/>
-      <c r="AD7" s="179">
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185">
         <f>AD8</f>
         <v>45705</v>
       </c>
-      <c r="AE7" s="179"/>
-      <c r="AF7" s="179"/>
-      <c r="AG7" s="179"/>
-      <c r="AH7" s="179"/>
-      <c r="AI7" s="179"/>
-      <c r="AJ7" s="179"/>
-      <c r="AK7" s="179">
+      <c r="AE7" s="185"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="185"/>
+      <c r="AJ7" s="185"/>
+      <c r="AK7" s="185">
         <f>AK8</f>
         <v>45712</v>
       </c>
-      <c r="AL7" s="179"/>
-      <c r="AM7" s="179"/>
-      <c r="AN7" s="179"/>
-      <c r="AO7" s="179"/>
-      <c r="AP7" s="179"/>
-      <c r="AQ7" s="179"/>
-      <c r="AR7" s="179">
+      <c r="AL7" s="185"/>
+      <c r="AM7" s="185"/>
+      <c r="AN7" s="185"/>
+      <c r="AO7" s="185"/>
+      <c r="AP7" s="185"/>
+      <c r="AQ7" s="185"/>
+      <c r="AR7" s="185">
         <f>AR8</f>
         <v>45719</v>
       </c>
-      <c r="AS7" s="179"/>
-      <c r="AT7" s="179"/>
-      <c r="AU7" s="179"/>
-      <c r="AV7" s="179"/>
-      <c r="AW7" s="179"/>
-      <c r="AX7" s="179"/>
-      <c r="AY7" s="179">
+      <c r="AS7" s="185"/>
+      <c r="AT7" s="185"/>
+      <c r="AU7" s="185"/>
+      <c r="AV7" s="185"/>
+      <c r="AW7" s="185"/>
+      <c r="AX7" s="185"/>
+      <c r="AY7" s="185">
         <f>AY8</f>
         <v>45726</v>
       </c>
-      <c r="AZ7" s="179"/>
-      <c r="BA7" s="179"/>
-      <c r="BB7" s="179"/>
-      <c r="BC7" s="179"/>
-      <c r="BD7" s="179"/>
-      <c r="BE7" s="179"/>
-      <c r="BF7" s="179">
+      <c r="AZ7" s="185"/>
+      <c r="BA7" s="185"/>
+      <c r="BB7" s="185"/>
+      <c r="BC7" s="185"/>
+      <c r="BD7" s="185"/>
+      <c r="BE7" s="185"/>
+      <c r="BF7" s="185">
         <f>BF8</f>
         <v>45733</v>
       </c>
-      <c r="BG7" s="179"/>
-      <c r="BH7" s="179"/>
-      <c r="BI7" s="179"/>
-      <c r="BJ7" s="179"/>
-      <c r="BK7" s="179"/>
-      <c r="BL7" s="180"/>
+      <c r="BG7" s="185"/>
+      <c r="BH7" s="185"/>
+      <c r="BI7" s="185"/>
+      <c r="BJ7" s="185"/>
+      <c r="BK7" s="185"/>
+      <c r="BL7" s="186"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182" t="s">
+      <c r="A8" s="187"/>
+      <c r="B8" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="184" t="s">
+      <c r="C8" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="186" t="s">
+      <c r="D8" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="186" t="s">
+      <c r="E8" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="192" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -25003,12 +25003,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="181"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -27623,13 +27623,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -27641,6 +27634,13 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -27774,28 +27774,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="187" t="s">
+      <c r="I1" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="189">
+      <c r="Q1" s="181">
         <v>45639</v>
       </c>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="182"/>
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="182"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -27807,28 +27807,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="187" t="s">
+      <c r="I2" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="191">
+      <c r="Q2" s="183">
         <v>9</v>
       </c>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="190"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="182"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -27924,102 +27924,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="192">
+      <c r="I7" s="184">
         <f>I8</f>
         <v>45691</v>
       </c>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179">
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185">
         <f>P8</f>
         <v>45698</v>
       </c>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="179"/>
-      <c r="T7" s="179"/>
-      <c r="U7" s="179"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179">
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185">
         <f>W8</f>
         <v>45705</v>
       </c>
-      <c r="X7" s="179"/>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="179"/>
-      <c r="AB7" s="179"/>
-      <c r="AC7" s="179"/>
-      <c r="AD7" s="179">
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185">
         <f>AD8</f>
         <v>45712</v>
       </c>
-      <c r="AE7" s="179"/>
-      <c r="AF7" s="179"/>
-      <c r="AG7" s="179"/>
-      <c r="AH7" s="179"/>
-      <c r="AI7" s="179"/>
-      <c r="AJ7" s="179"/>
-      <c r="AK7" s="179">
+      <c r="AE7" s="185"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="185"/>
+      <c r="AJ7" s="185"/>
+      <c r="AK7" s="185">
         <f>AK8</f>
         <v>45719</v>
       </c>
-      <c r="AL7" s="179"/>
-      <c r="AM7" s="179"/>
-      <c r="AN7" s="179"/>
-      <c r="AO7" s="179"/>
-      <c r="AP7" s="179"/>
-      <c r="AQ7" s="179"/>
-      <c r="AR7" s="179">
+      <c r="AL7" s="185"/>
+      <c r="AM7" s="185"/>
+      <c r="AN7" s="185"/>
+      <c r="AO7" s="185"/>
+      <c r="AP7" s="185"/>
+      <c r="AQ7" s="185"/>
+      <c r="AR7" s="185">
         <f>AR8</f>
         <v>45726</v>
       </c>
-      <c r="AS7" s="179"/>
-      <c r="AT7" s="179"/>
-      <c r="AU7" s="179"/>
-      <c r="AV7" s="179"/>
-      <c r="AW7" s="179"/>
-      <c r="AX7" s="179"/>
-      <c r="AY7" s="179">
+      <c r="AS7" s="185"/>
+      <c r="AT7" s="185"/>
+      <c r="AU7" s="185"/>
+      <c r="AV7" s="185"/>
+      <c r="AW7" s="185"/>
+      <c r="AX7" s="185"/>
+      <c r="AY7" s="185">
         <f>AY8</f>
         <v>45733</v>
       </c>
-      <c r="AZ7" s="179"/>
-      <c r="BA7" s="179"/>
-      <c r="BB7" s="179"/>
-      <c r="BC7" s="179"/>
-      <c r="BD7" s="179"/>
-      <c r="BE7" s="179"/>
-      <c r="BF7" s="179">
+      <c r="AZ7" s="185"/>
+      <c r="BA7" s="185"/>
+      <c r="BB7" s="185"/>
+      <c r="BC7" s="185"/>
+      <c r="BD7" s="185"/>
+      <c r="BE7" s="185"/>
+      <c r="BF7" s="185">
         <f>BF8</f>
         <v>45740</v>
       </c>
-      <c r="BG7" s="179"/>
-      <c r="BH7" s="179"/>
-      <c r="BI7" s="179"/>
-      <c r="BJ7" s="179"/>
-      <c r="BK7" s="179"/>
-      <c r="BL7" s="180"/>
+      <c r="BG7" s="185"/>
+      <c r="BH7" s="185"/>
+      <c r="BI7" s="185"/>
+      <c r="BJ7" s="185"/>
+      <c r="BK7" s="185"/>
+      <c r="BL7" s="186"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182" t="s">
+      <c r="A8" s="187"/>
+      <c r="B8" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="184" t="s">
+      <c r="C8" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="186" t="s">
+      <c r="D8" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="186" t="s">
+      <c r="E8" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="192" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -28248,12 +28248,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="181"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -30868,13 +30868,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -30886,6 +30879,13 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -30986,23 +30986,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31318,29 +31307,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -31367,9 +31356,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
